--- a/top_päiväkirja_kevät_2026.xlsx
+++ b/top_päiväkirja_kevät_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eerikki.maula\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{29FB6FE2-3BAC-4CB8-8820-8FFAC7EC2DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3A9F95B-CD63-450C-8285-5F4381FA6B74}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{29FB6FE2-3BAC-4CB8-8820-8FFAC7EC2DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EE7D70D-9F3C-4FC0-9E99-33683E91F192}"/>
   <bookViews>
     <workbookView xWindow="-27630" yWindow="1335" windowWidth="19230" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
   <si>
     <t>Opiskelija</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>Show password toggle button; show languages from the db.json</t>
   </si>
   <si>
     <t>pe</t>
@@ -697,7 +700,7 @@
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -808,24 +811,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="45.75" customHeight="1">
       <c r="A8" s="12">
         <v>46037</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="13">
         <v>46038</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="9"/>
@@ -885,7 +894,7 @@
         <v>46045</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="9"/>
@@ -945,7 +954,7 @@
         <v>46052</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="9"/>
@@ -1005,7 +1014,7 @@
         <v>46059</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9"/>
@@ -1065,7 +1074,7 @@
         <v>46066</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9"/>
@@ -1125,7 +1134,7 @@
         <v>46073</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="20"/>
@@ -1185,7 +1194,7 @@
         <v>46080</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9"/>
@@ -1245,7 +1254,7 @@
         <v>46087</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="9"/>
@@ -1305,7 +1314,7 @@
         <v>46094</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="9"/>
@@ -1365,7 +1374,7 @@
         <v>46101</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="9"/>
@@ -1425,7 +1434,7 @@
         <v>46108</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="9"/>
@@ -1457,11 +1466,11 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B65" s="32"/>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15"/>
@@ -1513,26 +1522,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="94885e40-5ce3-4968-98dc-e37accdc5885">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="21f2f96f-3940-4dcd-b8d7-2051c5acc894" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000250138491EA4D479E7A39716D152871" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d44e28cc94bbb631b544141ab757725c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="94885e40-5ce3-4968-98dc-e37accdc5885" xmlns:ns3="21f2f96f-3940-4dcd-b8d7-2051c5acc894" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5fc4052c7a462a0914ebde8b97f02170" ns2:_="" ns3:_="">
     <xsd:import namespace="94885e40-5ce3-4968-98dc-e37accdc5885"/>
@@ -1755,8 +1744,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="94885e40-5ce3-4968-98dc-e37accdc5885">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="21f2f96f-3940-4dcd-b8d7-2051c5acc894" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F0D827-B951-4FD8-9FEE-A35AFC155082}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38233494-25D3-403B-BB6F-53123FCFB6E4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1764,5 +1773,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38233494-25D3-403B-BB6F-53123FCFB6E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F0D827-B951-4FD8-9FEE-A35AFC155082}"/>
 </file>